--- a/Data_instances/Instance_10.xlsx
+++ b/Data_instances/Instance_10.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c52078776c85d30/Documents/Data Science/Heuristic Methods/HW2/Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c52078776c85d30/Documents/Data Science/Heuristic Methods/HW2/Code/Data_instances/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC1048A1315E664C5ADE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F60A9AED-2F9D-4773-9DA8-7B4D4D66EDEE}"/>
@@ -391,7 +391,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
